--- a/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
@@ -692,7 +692,7 @@
     </row>
     <row r="31">
       <c r="C31" t="str">
-        <v>730_蝴蝶洋牡丹奶油黄_butterfly  Ranunculus_undefined_1bunch</v>
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
@@ -694,6 +694,9 @@
       <c r="C31" t="str">
         <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -755,7 +758,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015135535710510105101035510205768654550</v>
+        <v>01015135535710510105101035510205768654555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -698,9 +698,36 @@
         <v>5</v>
       </c>
     </row>
+    <row r="32">
+      <c r="C32" t="str">
+        <v>493_咖喱花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F32" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>1</v>
+      </c>
+      <c r="C33" t="str">
+        <v>126_绣球苹果绿_Hydrangea Garden Lace_Hydrangea L._1stem</v>
+      </c>
+      <c r="F33" t="str">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>650_洋牡丹婚礼白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F34" t="str">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L34"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -758,7 +785,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>01015135535710510105101035510205768654555</v>
+        <v>01015135535710510105101035510205768654555512014</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-24.xlsx
@@ -787,6 +787,9 @@
       <c r="G2" t="str">
         <v>01015135535710510105101035510205768654555512014</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
